--- a/reports/output.xlsx
+++ b/reports/output.xlsx
@@ -107,7 +107,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:G7"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -120,14 +120,14 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>Formulir :teeee zzzz</t>
+          <t>Formulir :testing bro</t>
         </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Data Report : 03-09-2024 06:42:51</t>
+          <t>Data Report : 06-09-2024 01:03:09</t>
         </is>
       </c>
     </row>
@@ -135,23 +135,112 @@
       <c r="A3" s="0"/>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="4">
-      <c r="A4" s="0" t="n">
-        <v>1</v>
+      <c r="A4" s="0" t="inlineStr">
+        <is>
+          <t>No.</t>
+        </is>
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
+          <t>Text Field</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Radio Group</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>save</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="F4" s="0" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
+      <c r="A5" s="0" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" s="0" t="inlineStr">
+        <is>
+          <t>assdasd</t>
+        </is>
+      </c>
+      <c r="C5" s="0" t="inlineStr">
+        <is>
+          <t>option-2</t>
+        </is>
+      </c>
+      <c r="D5" s="0"/>
+      <c r="E5" s="0" t="inlineStr">
+        <is>
+          <t>cinta</t>
+        </is>
+      </c>
+      <c r="F5" s="0" t="inlineStr">
+        <is>
+          <t>2024-09-03 23:02:57</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
+      <c r="A6" s="0" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" s="0" t="inlineStr">
+        <is>
+          <t>ccccc</t>
+        </is>
+      </c>
+      <c r="C6" s="0" t="inlineStr">
+        <is>
           <t>option-3</t>
         </is>
       </c>
-      <c r="C4" s="0"/>
-      <c r="D4" s="0" t="inlineStr">
+      <c r="D6" s="0"/>
+      <c r="E6" s="0" t="inlineStr">
         <is>
           <t>cinta</t>
         </is>
       </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>2024-09-03 21:09:14</t>
+      <c r="F6" s="0" t="inlineStr">
+        <is>
+          <t>2024-09-03 23:03:02</t>
+        </is>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
+      <c r="A7" s="0" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" s="0" t="inlineStr">
+        <is>
+          <t>eeee</t>
+        </is>
+      </c>
+      <c r="C7" s="0" t="inlineStr">
+        <is>
+          <t>option-1</t>
+        </is>
+      </c>
+      <c r="D7" s="0"/>
+      <c r="E7" s="0" t="inlineStr">
+        <is>
+          <t>cinta</t>
+        </is>
+      </c>
+      <c r="F7" s="0" t="inlineStr">
+        <is>
+          <t>2024-09-03 23:03:06</t>
         </is>
       </c>
     </row>

--- a/reports/output.xlsx
+++ b/reports/output.xlsx
@@ -107,7 +107,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A1" view="normal" windowProtection="false" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="A1" activeCellId="0" pane="topLeft" sqref="A1"/>
@@ -120,14 +120,14 @@
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="1">
       <c r="A1" s="0" t="inlineStr">
         <is>
-          <t>Formulir :testing bro</t>
+          <t>Formulir :asd</t>
         </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="2">
       <c r="A2" s="0" t="inlineStr">
         <is>
-          <t>Data Report : 06-09-2024 01:03:09</t>
+          <t>Data Report : 13-09-2024 06:08:00</t>
         </is>
       </c>
     </row>
@@ -142,107 +142,63 @@
       </c>
       <c r="B4" s="0" t="inlineStr">
         <is>
+          <t>Gedung</t>
+        </is>
+      </c>
+      <c r="C4" s="0" t="inlineStr">
+        <is>
+          <t>Username</t>
+        </is>
+      </c>
+      <c r="D4" s="0" t="inlineStr">
+        <is>
+          <t>Date Created</t>
+        </is>
+      </c>
+      <c r="E4" s="0" t="inlineStr">
+        <is>
           <t>Text Field</t>
         </is>
       </c>
-      <c r="C4" s="0" t="inlineStr">
-        <is>
-          <t>Radio Group</t>
-        </is>
-      </c>
-      <c r="D4" s="0" t="inlineStr">
-        <is>
-          <t>save</t>
-        </is>
-      </c>
-      <c r="E4" s="0" t="inlineStr">
-        <is>
-          <t>Username</t>
-        </is>
-      </c>
       <c r="F4" s="0" t="inlineStr">
         <is>
-          <t>Date Created</t>
+          <t>Text Field</t>
+        </is>
+      </c>
+      <c r="G4" s="0" t="inlineStr">
+        <is>
+          <t>Button</t>
         </is>
       </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="5">
       <c r="A5" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="B5" s="0" t="inlineStr">
-        <is>
-          <t>assdasd</t>
-        </is>
+        <v>1</v>
+      </c>
+      <c r="B5" s="0" t="n">
+        <v>5</v>
       </c>
       <c r="C5" s="0" t="inlineStr">
         <is>
-          <t>option-2</t>
-        </is>
-      </c>
-      <c r="D5" s="0"/>
+          <t>agung11</t>
+        </is>
+      </c>
+      <c r="D5" s="0" t="inlineStr">
+        <is>
+          <t>2024-09-13 23:04:27</t>
+        </is>
+      </c>
       <c r="E5" s="0" t="inlineStr">
         <is>
-          <t>cinta</t>
+          <t>ddd</t>
         </is>
       </c>
       <c r="F5" s="0" t="inlineStr">
         <is>
-          <t>2024-09-03 23:02:57</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="6">
-      <c r="A6" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="B6" s="0" t="inlineStr">
-        <is>
-          <t>ccccc</t>
-        </is>
-      </c>
-      <c r="C6" s="0" t="inlineStr">
-        <is>
-          <t>option-3</t>
-        </is>
-      </c>
-      <c r="D6" s="0"/>
-      <c r="E6" s="0" t="inlineStr">
-        <is>
-          <t>cinta</t>
-        </is>
-      </c>
-      <c r="F6" s="0" t="inlineStr">
-        <is>
-          <t>2024-09-03 23:03:02</t>
-        </is>
-      </c>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="12.1" outlineLevel="0" r="7">
-      <c r="A7" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="B7" s="0" t="inlineStr">
-        <is>
-          <t>eeee</t>
-        </is>
-      </c>
-      <c r="C7" s="0" t="inlineStr">
-        <is>
-          <t>option-1</t>
-        </is>
-      </c>
-      <c r="D7" s="0"/>
-      <c r="E7" s="0" t="inlineStr">
-        <is>
-          <t>cinta</t>
-        </is>
-      </c>
-      <c r="F7" s="0" t="inlineStr">
-        <is>
-          <t>2024-09-03 23:03:06</t>
-        </is>
-      </c>
+          <t>ddd</t>
+        </is>
+      </c>
+      <c r="G5" s="0"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
